--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">question</t>
   </si>
@@ -31,39 +31,50 @@
     <t xml:space="preserve">answer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">これは
-テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">です</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://noauto-nolife.com/images/nodejs.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これは
-解答
-です。</t>
+    <t xml:space="preserve">標本化とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連続的な信号(音など)を一定時間ごとに区切って値を取り出すこと。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">量子化とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取り出した値をコンピューターで扱える離散的な数値(0,1...) などに変換をすること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ニューラルネットワークの構造を説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入力層と中間層(隠れ層)、出力層の3種類の層で構成されている。
+入力層はデータをそのまま受け取る層。
+中間層は特徴を抽出する層。バイアス項(出力を調整する下駄)が足され、活性化関数が適用される。
+出力層は最終結果を出す層。回帰問題は値をそのまま出す。分類の場合は確率(Softmax)を出す。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">従来の機械学習とディープラーニングの違いを説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">従来型の機械学習は特徴量を手動で指定する必要があった。
+一方でディープラーニングは特徴量を自動的に抽出して学習することができる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ニューラルネットワークの学習の仕組みについて説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中間層で特徴量の抽出を行い、その抽出した値に応じた重みをつける。
+重みが妥当であるかを判断して調整を繰り返していく。
+具体的には以下のサイクルを回していく。
+順伝播: 今の適当な「重み」で予測してみる。
+誤差計算: 「犬なのに猫と判定した（誤差大）」と判定。
+逆伝播: 「この誤差を減らすには、中間層の『耳の形』に反応する重みをこう変えるべきだ」と、特徴量の抽出ルールを修正する。重み付けのデバッグをしていくイメージ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活性化関数はニューラルネットワークのどの工程で使用されるか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">順伝播、逆伝播で使用されている。
+活性化関数を使って、ニューロンの計算結果(入力x重み+バイアス)を次の層に渡すときに変換をする。そうしないと線形計算になってしまい、複雑なパターンの計算ができない。</t>
   </si>
 </sst>
 </file>
@@ -172,13 +183,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.45"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -191,15 +207,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">question</t>
   </si>
@@ -75,6 +75,183 @@
   <si>
     <t xml:space="preserve">順伝播、逆伝播で使用されている。
 活性化関数を使って、ニューロンの計算結果(入力x重み+バイアス)を次の層に渡すときに変換をする。そうしないと線形計算になってしまい、複雑なパターンの計算ができない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正則化について説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モデルが学習データに対して過剰適合(過学習)するのを防ぐ仕組み。
+重みを小さく保つことで、一部のデータだけ重視しないようにすることができる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1正則化とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あまり重要ではない特徴量の重みを0にする仕組み。
+例えば、犬と猫を見分ける場合。犬も猫も毛で覆われていて目が2つあるので、この特徴を重視しても効果は薄い。
+このような学習に効果的ではない情報は切り捨てていくのが、L1正則化。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2正則化とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特定の特徴量だけ重視して学習しないようにする仕組み。
+例えば、犬と猫を見分ける場合。たまたま犬に赤い首輪がつけられており、その重みを重視して学習すると問題。
+赤い首輪だけでなく、輪郭や大きさなど、全体的な特徴を考慮してバランス良く学習するのがL2正則化。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均(Mean)とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合計を個数で割った物。
+データの中心地を表すことができる。
+np.mean(a) で平均の計算ができる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分散(Variance)とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">各データと平均値の差を2乗して平均したもの。
+データのばらつき(散らばり)を表すことができる。
+np.var(a) で分散の計算ができる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">標準偏差(SD)とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分散の平方根(√分散)。
+分散だと単位が2乗(m^2)になるのでもとの単位(m)に戻したもの。
+np.std(a) で標準偏差の計算ができる。
+分散の平方根なので、 np.sqrt(np.var(a)) としても結果は同じ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">離散とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連続値ではないデジタルデータ。
+0,1,2,3 ... などと数値で飛んでいるデータで、途中で0.1 などがない。
+標本化されたアナログデータを量子化するときに離散は作られる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連続とは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連続値のアナログデータ。
+身長や体重などの生データを指している。
+標本化をするときに作られる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpyのaxis引数について説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均や分散の計算をするとき、行か列かどちらの軸を中心として計算をするかを決める引数。
+例えば、
+data = np.array([[1, 2, 3],
+                 [4, 5, 6]])
+この場合、 np.mean(data) は全体の平均のため、3.5が得られる。
+np.mean(data, axis=0) は列ごとに計算をするため、 [2.5, 3.5, 4.5] が得られる。
+np.mean(data, axis=1) は行ごとに計算をするため、[2.0, 5.0] が得られる。
+ここで行ごとに計算をしたとき、二次元配列を維持したい場合は
+np.mean(data, axis=1, keepdims=True) と、keepdims引数を指定する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandas でNaN を0で埋めるにはどうするか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df.fillna(0)
+df.fillna() は引数に指定した値をNaNの箇所に代入できる。
+df.fillna("") は欠損値を空文字列にすることができる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandas で欠損値がどこにいくつあるかを確認するにはどうするか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df.isnull().sum()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandas で 先頭から10行、末尾から5行を抜き取って確認するにはどうするか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先頭10行: df.head(10)
+末尾5行: df.tail()
+どちらも引数指定で行数の指定ができる。デフォルトは5。
+Linuxのheadとtailと同じ発想で覚えておく。(※Linuxのheadとtailはデフォルト10行)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpyでL2ノルムを計算するにはどのように行えばよいか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = np.array([3, 4])
+norm = np.linalg.norm(x) # 結果は 5.0 (3^2 + 4^2 = 25 の平方根)
+np.linalg はリニア代数。行列計算(逆行列など)もできる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">損失関数と活性化関数の違いについて説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どちらも学習時に使用される微分可能な関数で、
+損失関数は予測と正解の誤差を計算することができる。
+平均二乗誤差(MSE)、平均絶対誤差(MAE)、交差エントロピーなどが当てはまる。
+活性化関数はモデルに非線形を取り入れることで、より効果的に学習できる。
+ReLUやSigmoid などがある。Sigmoidは0~1に収束しているため重ねると勾配消失に陥りやすい。
+まず活性化関数でモデルに非線形を取り入れた上で、その非線形モデルと正解との誤差を調べるため損失関数を使う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活性化関数は順伝播と逆伝播で使用されるが、それぞれの関数の使われ方の違いを説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">順伝播は関数そのものが使用される。
+一方で、逆伝播は誤差を調べるために関数を微分して使用される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なぜ活性化関数のシグモイドとReLUが使用されているのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">関数の形がシンプルであり、誤差逆伝播法で微分をしなければならないとき、計算コストを小さくすることができるから。
+例えば、シグモイド関数の微分は f(x)(1-f(x)) であり、直前でf(x) = 0.8だった場合、 0.8(1-0.8) で計算がとても簡単であるから。
+同じくReLUは、負の値が必ず0になり、正の値はそのままなのでこちらも微分の計算がとても楽。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勾配降下法とはどういうものか？
+どんなときに使用されているのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勾配降下法は損失関数(誤差)を最小化し、最適なパラメータ(重み)を見つけるための反復最適化アルゴリズムである。
+例えば、犬と猫を間違えたとき、その誤差を最小化するため勾配降下法で微調整をする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勾配降下法で、勾配(傾き)が5、学習率が0.1のとき、更新後の重みはどのようになるか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新後の重み = 勾配 x 学習率
+0.5 = 5 * 0.1
+現在の重みから0.5を減らす。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データセット[2,4,6] の分散は？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まず平均値を計算。各値との平均との差を計算して、それぞれを2乗にする。各値の平均を取れば、分散がわかる。
+1 平均を出す：(2+4+6)÷3=4
+2 各データと平均の差（偏差）を出す：−2,0,2
+3 偏差を2乗する：4,0,4
+4 2乗したものの平均をとる：(4+0+4)÷3=8/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合成関数とは何か？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その名の通り複数の関数を組み合わせた(合成した)関数のこと。
+ニューラルネットワークでは複数の関数を組み合わせた合成関数を使用する。
+逆伝播ではその合成関数を微分する。その時有効になるのが、連鎖率(チェインルール)である。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">順伝播、誤差計算、逆伝播についてそれぞれ行っていることと使用している数学を説明せよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">順伝播では、四則演算や行列の積、活性化関数を使用して、入力値から予測を出している。
+誤差計算では、損失関数を使用して、予測と正解を比べる。
+逆伝播では、上記計算の微分をして、重みの修正方針を決めている。(結果的に合成関数の微分になるため連鎖律(チェインルール)で計算をしている)</t>
   </si>
 </sst>
 </file>
@@ -89,6 +266,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,6 +287,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +332,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +343,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -183,17 +366,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,24 +390,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="194" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -232,7 +415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="114.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -240,7 +423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="301.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -248,12 +431,180 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="119.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="104.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="58.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="58.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="58.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="58.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="130.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="87.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="288.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="87.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="87.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="302.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="97.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="173.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="126.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="173.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="130.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="144.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">question</t>
   </si>
@@ -252,6 +252,25 @@
     <t xml:space="preserve">順伝播では、四則演算や行列の積、活性化関数を使用して、入力値から予測を出している。
 誤差計算では、損失関数を使用して、予測と正解を比べる。
 逆伝播では、上記計算の微分をして、重みの修正方針を決めている。(結果的に合成関数の微分になるため連鎖律(チェインルール)で計算をしている)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆伝播において、重みを更新する手法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勾配降下法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆伝播において、勾配を効率よく計算する仕組み</t>
+  </si>
+  <si>
+    <t xml:space="preserve">誤差逆伝播法(連鎖律)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kMeans(k平均法) とkNN(k近傍法)の違いは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kMeans(k平均法) は教師なし学習によるクラスタリング
+kNN(k近傍法) は教師あり学習による分類問題</t>
   </si>
 </sst>
 </file>
@@ -366,13 +385,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
@@ -605,6 +624,30 @@
       </c>
       <c r="C28" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
